--- a/Medições/Grupo Medições - Recristalização Simulada.xlsx
+++ b/Medições/Grupo Medições - Recristalização Simulada.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_\Documents\João Filipe\Universidade\3º Ano\2º Semestre\IIA\PROJETO\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63CD41-2CDF-42CA-A45F-2781136AAFEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C575E-F4C5-4903-832F-75B8CB9B258C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10848" yWindow="3816" windowWidth="23040" windowHeight="6852" xr2:uid="{BB944706-3B3A-4F41-B165-D300BF42D55D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB944706-3B3A-4F41-B165-D300BF42D55D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Testes Escolha" sheetId="2" r:id="rId1"/>
+    <sheet name="Medições" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="28">
   <si>
     <t>NoObstacles</t>
   </si>
@@ -101,6 +102,21 @@
   <si>
     <t>[6 5 9 4 1 2 3 7 8 14 12 17 20 24 18 16 23 22 21 19 15 10 11 13]</t>
   </si>
+  <si>
+    <t>Mapa ReturnTo2bHarder</t>
+  </si>
+  <si>
+    <t>Diminuição Linear</t>
+  </si>
+  <si>
+    <t>melhor custo =</t>
+  </si>
+  <si>
+    <t>Diminuição Geométrica</t>
+  </si>
+  <si>
+    <t>Melhor Escolha -&gt; Diminuição Geométrica</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -161,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -173,6 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,11 +509,487 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E5106E-33A4-4838-B0AF-427999227A2B}">
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>250</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>750</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>5000</v>
+      </c>
+      <c r="K3">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>250</v>
+      </c>
+      <c r="S3">
+        <v>500</v>
+      </c>
+      <c r="T3">
+        <v>750</v>
+      </c>
+      <c r="U3">
+        <v>1000</v>
+      </c>
+      <c r="V3">
+        <v>5000</v>
+      </c>
+      <c r="W3">
+        <v>10000</v>
+      </c>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>237</v>
+      </c>
+      <c r="C4">
+        <v>224</v>
+      </c>
+      <c r="D4">
+        <v>229</v>
+      </c>
+      <c r="E4">
+        <v>237</v>
+      </c>
+      <c r="F4">
+        <v>253</v>
+      </c>
+      <c r="G4">
+        <v>205</v>
+      </c>
+      <c r="H4">
+        <v>215</v>
+      </c>
+      <c r="I4">
+        <v>225</v>
+      </c>
+      <c r="J4">
+        <v>156</v>
+      </c>
+      <c r="K4">
+        <v>156</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>237</v>
+      </c>
+      <c r="O4">
+        <v>224</v>
+      </c>
+      <c r="P4">
+        <v>217</v>
+      </c>
+      <c r="Q4">
+        <v>205</v>
+      </c>
+      <c r="R4">
+        <v>199</v>
+      </c>
+      <c r="S4">
+        <v>239</v>
+      </c>
+      <c r="T4">
+        <v>136</v>
+      </c>
+      <c r="U4">
+        <v>105</v>
+      </c>
+      <c r="V4">
+        <v>89</v>
+      </c>
+      <c r="W4">
+        <v>89</v>
+      </c>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>237</v>
+      </c>
+      <c r="C5">
+        <v>224</v>
+      </c>
+      <c r="D5">
+        <v>217</v>
+      </c>
+      <c r="E5">
+        <v>205</v>
+      </c>
+      <c r="F5">
+        <v>229</v>
+      </c>
+      <c r="G5">
+        <v>237</v>
+      </c>
+      <c r="H5">
+        <v>165</v>
+      </c>
+      <c r="I5">
+        <v>193</v>
+      </c>
+      <c r="J5">
+        <v>199</v>
+      </c>
+      <c r="K5">
+        <v>199</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>237</v>
+      </c>
+      <c r="O5">
+        <v>224</v>
+      </c>
+      <c r="P5">
+        <v>217</v>
+      </c>
+      <c r="Q5">
+        <v>205</v>
+      </c>
+      <c r="R5">
+        <v>235</v>
+      </c>
+      <c r="S5">
+        <v>201</v>
+      </c>
+      <c r="T5">
+        <v>108</v>
+      </c>
+      <c r="U5">
+        <v>83</v>
+      </c>
+      <c r="V5">
+        <v>83</v>
+      </c>
+      <c r="W5">
+        <v>83</v>
+      </c>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>237</v>
+      </c>
+      <c r="C6">
+        <v>224</v>
+      </c>
+      <c r="D6">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>205</v>
+      </c>
+      <c r="F6">
+        <v>229</v>
+      </c>
+      <c r="G6">
+        <v>237</v>
+      </c>
+      <c r="H6">
+        <v>203</v>
+      </c>
+      <c r="I6">
+        <v>203</v>
+      </c>
+      <c r="J6">
+        <v>137</v>
+      </c>
+      <c r="K6">
+        <v>137</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>237</v>
+      </c>
+      <c r="O6">
+        <v>224</v>
+      </c>
+      <c r="P6">
+        <v>217</v>
+      </c>
+      <c r="Q6">
+        <v>205</v>
+      </c>
+      <c r="R6">
+        <v>229</v>
+      </c>
+      <c r="S6">
+        <v>193</v>
+      </c>
+      <c r="T6">
+        <v>137</v>
+      </c>
+      <c r="U6">
+        <v>119</v>
+      </c>
+      <c r="V6">
+        <v>117</v>
+      </c>
+      <c r="W6">
+        <v>117</v>
+      </c>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:K7" si="0">AVERAGE(B4:B6)</f>
+        <v>237</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>215.66666666666666</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>226.33333333333334</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>194.33333333333334</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:W7" si="1">AVERAGE(N4:N6)</f>
+        <v>237</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>102.33333333333333</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>96.333333333333329</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>96.333333333333329</v>
+      </c>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L8" s="9"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <f>MIN(B4:K6)</f>
+        <v>137</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10">
+        <f>MIN(N4:W6)</f>
+        <v>83</v>
+      </c>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB601E8F-994E-48ED-BFC5-064559DA1082}">
   <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
